--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E1421-6E21-4253-8B7D-F8BDB634440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5C480E-99CB-47DA-8D8E-2E97CC0C9AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -22,18 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>IC Number</t>
   </si>
   <si>
     <t>Birth Date</t>
   </si>
   <si>
-    <t>Home Address</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -43,24 +37,15 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
     <t>Health Status</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Religion</t>
   </si>
   <si>
     <t>Race</t>
   </si>
   <si>
-    <t>Parent Salary (RM)</t>
-  </si>
-  <si>
     <t>CGPA</t>
   </si>
   <si>
@@ -665,6 +650,21 @@
   </si>
   <si>
     <t>601, Jalan Melati, Johor Bahru</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat Rumah</t>
+  </si>
+  <si>
+    <t>Umur</t>
+  </si>
+  <si>
+    <t>Gaji</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
   </si>
 </sst>
 </file>
@@ -1528,98 +1528,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC4925-F084-4E03-BA42-304763D6C282}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1628,45 +1631,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1675,45 +1678,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1722,45 +1725,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1769,45 +1772,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1816,45 +1819,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1863,45 +1866,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1910,45 +1913,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1957,45 +1960,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2004,45 +2007,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2051,45 +2054,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2098,45 +2101,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2145,45 +2148,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2192,45 +2195,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2239,45 +2242,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2286,45 +2289,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2333,45 +2336,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2380,45 +2383,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2427,45 +2430,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2474,45 +2477,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2521,45 +2524,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2568,45 +2571,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2615,45 +2618,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2662,45 +2665,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2709,45 +2712,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2756,45 +2759,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2803,45 +2806,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2850,45 +2853,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2897,45 +2900,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2944,45 +2947,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -2991,7 +2994,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5C480E-99CB-47DA-8D8E-2E97CC0C9AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D3530-F881-4905-A5B2-6494DA913BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -652,19 +652,19 @@
     <t>601, Jalan Melati, Johor Bahru</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Alamat Rumah</t>
-  </si>
-  <si>
-    <t>Umur</t>
-  </si>
-  <si>
-    <t>Gaji</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Parent Salary (RM)</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
   </si>
 </sst>
 </file>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,23 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D3530-F881-4905-A5B2-6494DA913BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD5BA69-C473-4008-B881-BB0E1324FF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Information" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
-    <t>IC Number</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -665,6 +675,9 @@
   </si>
   <si>
     <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>No. MyKad</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,91 +1551,92 @@
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1631,45 +1645,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1678,45 +1692,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1725,45 +1739,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1772,45 +1786,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1819,45 +1833,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1866,45 +1880,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1913,45 +1927,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1960,45 +1974,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2007,45 +2021,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2054,45 +2068,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
         <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2101,45 +2115,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2148,45 +2162,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2195,45 +2209,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
         <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2242,45 +2256,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2289,45 +2303,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2336,45 +2350,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2383,45 +2397,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" t="s">
-        <v>127</v>
-      </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
         <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2430,45 +2444,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2477,45 +2491,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>137</v>
       </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
       <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
         <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2524,45 +2538,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
         <v>17</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2571,45 +2585,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
         <v>144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
         <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2618,45 +2632,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
         <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2665,45 +2679,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
         <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
         <v>17</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2712,45 +2726,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
         <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
         <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2759,45 +2773,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
         <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2806,45 +2820,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
         <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2853,45 +2867,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s">
         <v>168</v>
-      </c>
-      <c r="B29" t="s">
-        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
         <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2900,45 +2914,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
         <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2947,45 +2961,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
         <v>176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -2994,7 +3008,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3003,6 +3017,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C559EDFBBBE9514EA766F232F5ED047B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c10f33b93b6a5accf340edd2f53f0ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7429dec-4d1d-4d9d-b792-90935121f18b" xmlns:ns4="8659580f-77d4-4434-a6cf-76471f2fa9a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db754dec2233960db9315c7966ba2fef" ns3:_="" ns4:_="">
     <xsd:import namespace="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
@@ -3249,15 +3272,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3267,6 +3281,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B1EE35-82DF-435A-86FF-42C1260FDF16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E29A645-F104-4465-B905-003CD336D464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3281,14 +3303,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B1EE35-82DF-435A-86FF-42C1260FDF16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD5BA69-C473-4008-B881-BB0E1324FF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598AD11F-5A65-4111-AD29-DB294D713053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -35,6 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
+    <t>IC Number</t>
+  </si>
+  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -44,9 +47,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Health Status</t>
   </si>
   <si>
@@ -677,7 +677,7 @@
     <t>Place of Birth</t>
   </si>
   <si>
-    <t>No. MyKad</t>
+    <t>Emel</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,22 +1559,22 @@
         <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
         <v>213</v>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598AD11F-5A65-4111-AD29-DB294D713053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F939A625-34C2-4B46-A994-77B0C752F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -47,6 +47,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Health Status</t>
   </si>
   <si>
@@ -665,9 +668,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Home Address</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -677,7 +677,7 @@
     <t>Place of Birth</t>
   </si>
   <si>
-    <t>Emel</t>
+    <t>Alamat Rumah</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1574,69 +1574,69 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>211</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
         <v>212</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1645,45 +1645,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1692,45 +1692,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1739,45 +1739,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1786,45 +1786,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1833,45 +1833,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1880,45 +1880,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1927,45 +1927,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1974,45 +1974,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2021,45 +2021,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2068,45 +2068,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2115,45 +2115,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2162,45 +2162,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2209,45 +2209,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2256,45 +2256,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2303,45 +2303,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2350,45 +2350,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2397,45 +2397,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2444,45 +2444,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2491,45 +2491,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2538,45 +2538,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2585,45 +2585,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2632,45 +2632,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2679,45 +2679,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2726,45 +2726,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2773,45 +2773,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2820,45 +2820,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2867,45 +2867,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2914,45 +2914,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2961,45 +2961,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3008,7 +3008,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F939A625-34C2-4B46-A994-77B0C752F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6813B-1F23-4F11-A946-D48E36D37015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -668,16 +668,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Parent Salary (RM)</t>
   </si>
   <si>
     <t>Place of Birth</t>
   </si>
   <si>
-    <t>Alamat Rumah</t>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>Umur</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1577,13 +1577,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>
@@ -3026,6 +3026,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b7429dec-4d1d-4d9d-b792-90935121f18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C559EDFBBBE9514EA766F232F5ED047B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c10f33b93b6a5accf340edd2f53f0ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7429dec-4d1d-4d9d-b792-90935121f18b" xmlns:ns4="8659580f-77d4-4434-a6cf-76471f2fa9a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db754dec2233960db9315c7966ba2fef" ns3:_="" ns4:_="">
     <xsd:import namespace="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
@@ -3272,14 +3280,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b7429dec-4d1d-4d9d-b792-90935121f18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B1EE35-82DF-435A-86FF-42C1260FDF16}">
   <ds:schemaRefs>
@@ -3289,6 +3289,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8076A-7B2A-4E56-A85E-6A8799EF3743}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8659580f-77d4-4434-a6cf-76471f2fa9a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E29A645-F104-4465-B905-003CD336D464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3305,21 +3322,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8076A-7B2A-4E56-A85E-6A8799EF3743}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8659580f-77d4-4434-a6cf-76471f2fa9a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6813B-1F23-4F11-A946-D48E36D37015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8535D0-A015-4A7F-876C-52EDBB768C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -665,9 +665,6 @@
     <t>601, Jalan Melati, Johor Bahru</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Parent Salary (RM)</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>Umur</t>
+  </si>
+  <si>
+    <t>Nama</t>
   </si>
 </sst>
 </file>
@@ -1541,9 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC4925-F084-4E03-BA42-304763D6C282}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1556,7 +1554,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1565,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1577,13 +1575,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -1592,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s">
         <v>8</v>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8535D0-A015-4A7F-876C-52EDBB768C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCA478-D18B-422C-8664-3E8BF88EBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
-    <t>IC Number</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -665,6 +659,12 @@
     <t>601, Jalan Melati, Johor Bahru</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
     <t>Parent Salary (RM)</t>
   </si>
   <si>
@@ -674,10 +674,10 @@
     <t>Home Address</t>
   </si>
   <si>
-    <t>Umur</t>
-  </si>
-  <si>
-    <t>Nama</t>
+    <t>No. Telefon</t>
+  </si>
+  <si>
+    <t>No. IC</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC4925-F084-4E03-BA42-304763D6C282}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1554,87 +1556,87 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
         <v>214</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>212</v>
       </c>
       <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>211</v>
       </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
       </c>
       <c r="M1" t="s">
         <v>210</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1643,45 +1645,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1690,45 +1692,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1737,45 +1739,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1784,45 +1786,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1831,45 +1833,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1878,45 +1880,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1925,45 +1927,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1972,45 +1974,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2019,45 +2021,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2066,45 +2068,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2113,45 +2115,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2160,45 +2162,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2207,45 +2209,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
         <v>102</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2254,45 +2256,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2301,45 +2303,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2348,45 +2350,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2395,45 +2397,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" t="s">
-        <v>127</v>
-      </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2442,45 +2444,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2489,45 +2491,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2536,45 +2538,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2583,45 +2585,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2630,45 +2632,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
         <v>96</v>
       </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2677,45 +2679,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
         <v>102</v>
       </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2724,45 +2726,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2771,45 +2773,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2818,45 +2820,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2865,45 +2867,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2912,45 +2914,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" t="s">
         <v>131</v>
       </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" t="s">
-        <v>133</v>
-      </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2959,45 +2961,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3006,7 +3008,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3024,14 +3026,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b7429dec-4d1d-4d9d-b792-90935121f18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C559EDFBBBE9514EA766F232F5ED047B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c10f33b93b6a5accf340edd2f53f0ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7429dec-4d1d-4d9d-b792-90935121f18b" xmlns:ns4="8659580f-77d4-4434-a6cf-76471f2fa9a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db754dec2233960db9315c7966ba2fef" ns3:_="" ns4:_="">
     <xsd:import namespace="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
@@ -3278,6 +3272,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b7429dec-4d1d-4d9d-b792-90935121f18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B1EE35-82DF-435A-86FF-42C1260FDF16}">
   <ds:schemaRefs>
@@ -3287,23 +3289,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8076A-7B2A-4E56-A85E-6A8799EF3743}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8659580f-77d4-4434-a6cf-76471f2fa9a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E29A645-F104-4465-B905-003CD336D464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3320,4 +3305,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8076A-7B2A-4E56-A85E-6A8799EF3743}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8659580f-77d4-4434-a6cf-76471f2fa9a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCA478-D18B-422C-8664-3E8BF88EBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132194EF-0A08-4910-A4B7-38149DF2F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -35,9 +35,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
+    <t>IC Number</t>
+  </si>
+  <si>
     <t>Birth Date</t>
   </si>
   <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -672,12 +678,6 @@
   </si>
   <si>
     <t>Home Address</t>
-  </si>
-  <si>
-    <t>No. Telefon</t>
-  </si>
-  <si>
-    <t>No. IC</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,87 +1556,87 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>210</v>
-      </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1645,45 +1645,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1692,45 +1692,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1739,45 +1739,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1786,45 +1786,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1833,45 +1833,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1880,45 +1880,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1927,45 +1927,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1974,45 +1974,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2021,45 +2021,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2068,45 +2068,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2115,45 +2115,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2162,45 +2162,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2209,45 +2209,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2256,45 +2256,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2303,45 +2303,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2350,45 +2350,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2397,45 +2397,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2444,45 +2444,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2491,45 +2491,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2538,45 +2538,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2585,45 +2585,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2632,45 +2632,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2679,45 +2679,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2726,45 +2726,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2773,45 +2773,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2820,45 +2820,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2867,45 +2867,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2914,45 +2914,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2961,45 +2961,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3008,7 +3008,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132194EF-0A08-4910-A4B7-38149DF2F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70EEAD-B169-4889-AEBE-8AC76C340D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>IC Number</t>
   </si>
   <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -674,10 +671,13 @@
     <t>Parent Salary (RM)</t>
   </si>
   <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
     <t>Home Address</t>
+  </si>
+  <si>
+    <t>Tarikh Lahir</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,91 +1552,92 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1645,45 +1646,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1692,45 +1693,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1739,45 +1740,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1786,45 +1787,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1833,45 +1834,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1880,45 +1881,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1927,45 +1928,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1974,45 +1975,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2021,45 +2022,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2068,45 +2069,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
         <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2115,45 +2116,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2162,45 +2163,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2209,45 +2210,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
         <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2256,45 +2257,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2303,45 +2304,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2350,45 +2351,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2397,45 +2398,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" t="s">
-        <v>127</v>
-      </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
         <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2444,45 +2445,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2491,45 +2492,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>137</v>
       </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
       <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
         <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2538,45 +2539,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
         <v>17</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2585,45 +2586,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
         <v>144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
         <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2632,45 +2633,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
         <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2679,45 +2680,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
         <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
         <v>17</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2726,45 +2727,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
         <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
         <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2773,45 +2774,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
         <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2820,45 +2821,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
         <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2867,45 +2868,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s">
         <v>168</v>
-      </c>
-      <c r="B29" t="s">
-        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
         <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2914,45 +2915,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
         <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2961,45 +2962,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
         <v>176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3008,7 +3009,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70EEAD-B169-4889-AEBE-8AC76C340D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F298857-3D5A-4785-8CE4-B0512704CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -38,6 +38,9 @@
     <t>IC Number</t>
   </si>
   <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -671,13 +674,10 @@
     <t>Parent Salary (RM)</t>
   </si>
   <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
     <t>Home Address</t>
-  </si>
-  <si>
-    <t>Tarikh Lahir</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
   </si>
 </sst>
 </file>
@@ -1557,87 +1557,87 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>211</v>
-      </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1646,45 +1646,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1693,45 +1693,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1740,45 +1740,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1787,45 +1787,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1834,45 +1834,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1881,45 +1881,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1928,45 +1928,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1975,45 +1975,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2022,45 +2022,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2069,45 +2069,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2116,45 +2116,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2163,45 +2163,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2210,45 +2210,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2257,45 +2257,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2304,45 +2304,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2351,45 +2351,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2398,45 +2398,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2445,45 +2445,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2492,45 +2492,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2539,45 +2539,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2586,45 +2586,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2633,45 +2633,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2680,45 +2680,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2727,45 +2727,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2774,45 +2774,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2821,45 +2821,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2868,45 +2868,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2915,45 +2915,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2962,45 +2962,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3009,7 +3009,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F298857-3D5A-4785-8CE4-B0512704CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE9DF0-356C-4E7F-A2D8-504F5BDCE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Health Status</t>
   </si>
   <si>
-    <t>Religion</t>
-  </si>
-  <si>
     <t>Race</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>Home Address</t>
+  </si>
+  <si>
+    <t>Agama</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1578,66 +1578,66 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1646,45 +1646,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1693,45 +1693,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1740,45 +1740,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1787,45 +1787,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1834,45 +1834,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1881,45 +1881,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1928,45 +1928,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1975,45 +1975,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2022,45 +2022,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2069,45 +2069,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
         <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2116,45 +2116,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2163,45 +2163,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2210,45 +2210,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>103</v>
       </c>
-      <c r="H15" t="s">
-        <v>104</v>
-      </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
         <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2257,45 +2257,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2304,45 +2304,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2351,45 +2351,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2398,45 +2398,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" t="s">
-        <v>127</v>
-      </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
         <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2445,45 +2445,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>131</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2492,45 +2492,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>137</v>
       </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>138</v>
-      </c>
       <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
         <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2539,45 +2539,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
         <v>17</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2586,45 +2586,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
         <v>144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
         <v>33</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2633,45 +2633,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
         <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2680,45 +2680,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
         <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
         <v>17</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2727,45 +2727,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
         <v>156</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
         <v>33</v>
-      </c>
-      <c r="L26" t="s">
-        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2774,45 +2774,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
         <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2821,45 +2821,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
         <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2868,45 +2868,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" t="s">
         <v>168</v>
-      </c>
-      <c r="B29" t="s">
-        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
         <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2915,45 +2915,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
         <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
         <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2962,45 +2962,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
         <v>176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3009,7 +3009,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3027,6 +3027,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b7429dec-4d1d-4d9d-b792-90935121f18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C559EDFBBBE9514EA766F232F5ED047B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c10f33b93b6a5accf340edd2f53f0ec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7429dec-4d1d-4d9d-b792-90935121f18b" xmlns:ns4="8659580f-77d4-4434-a6cf-76471f2fa9a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db754dec2233960db9315c7966ba2fef" ns3:_="" ns4:_="">
     <xsd:import namespace="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
@@ -3273,14 +3281,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b7429dec-4d1d-4d9d-b792-90935121f18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0B1EE35-82DF-435A-86FF-42C1260FDF16}">
   <ds:schemaRefs>
@@ -3290,6 +3290,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8076A-7B2A-4E56-A85E-6A8799EF3743}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8659580f-77d4-4434-a6cf-76471f2fa9a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E29A645-F104-4465-B905-003CD336D464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3306,21 +3323,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8076A-7B2A-4E56-A85E-6A8799EF3743}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b7429dec-4d1d-4d9d-b792-90935121f18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8659580f-77d4-4434-a6cf-76471f2fa9a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE9DF0-356C-4E7F-A2D8-504F5BDCE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A111983-3D0D-47A8-BEDE-58001BAADBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>Health Status</t>
   </si>
   <si>
-    <t>Race</t>
+    <t>Religion</t>
   </si>
   <si>
     <t>CGPA</t>
@@ -677,7 +677,7 @@
     <t>Home Address</t>
   </si>
   <si>
-    <t>Agama</t>
+    <t>Bangsa</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,10 +1587,10 @@
         <v>210</v>
       </c>
       <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>214</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
       </c>
       <c r="M1" t="s">
         <v>211</v>

--- a/backend/uploads/original/Student_Information.xlsx
+++ b/backend/uploads/original/Student_Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP 2\Data Masking Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A111983-3D0D-47A8-BEDE-58001BAADBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62261A04-05CF-472E-BBA3-854FA7C42A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A57B223-858D-42B1-B11F-F07BC4E85233}"/>
   </bookViews>
@@ -56,6 +56,9 @@
     <t>Religion</t>
   </si>
   <si>
+    <t>Race</t>
+  </si>
+  <si>
     <t>CGPA</t>
   </si>
   <si>
@@ -675,9 +678,6 @@
   </si>
   <si>
     <t>Home Address</t>
-  </si>
-  <si>
-    <t>Bangsa</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1578,66 +1578,66 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>32874</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>5000</v>
@@ -1646,45 +1646,45 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>33636</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
         <v>4500</v>
@@ -1693,45 +1693,45 @@
         <v>3.8</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>34396</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>6000</v>
@@ -1740,45 +1740,45 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>34793</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>5500</v>
@@ -1787,45 +1787,45 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>35190</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>5200</v>
@@ -1834,45 +1834,45 @@
         <v>3.7</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>35587</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <v>4800</v>
@@ -1881,45 +1881,45 @@
         <v>3.9</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>35983</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8">
         <v>5300</v>
@@ -1928,45 +1928,45 @@
         <v>3.45</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>36380</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>4700</v>
@@ -1975,45 +1975,45 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>36778</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10">
         <v>6200</v>
@@ -2022,45 +2022,45 @@
         <v>3.75</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>36892</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <v>4900</v>
@@ -2069,45 +2069,45 @@
         <v>3.85</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>37289</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>4500</v>
@@ -2116,45 +2116,45 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>37683</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>5800</v>
@@ -2163,45 +2163,45 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>38081</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14">
         <v>5600</v>
@@ -2210,45 +2210,45 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>38477</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>4700</v>
@@ -2257,45 +2257,45 @@
         <v>3.8</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>38874</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M16">
         <v>4900</v>
@@ -2304,45 +2304,45 @@
         <v>3.7</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>39270</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17">
         <v>4600</v>
@@ -2351,45 +2351,45 @@
         <v>3.75</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1">
         <v>39668</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>5100</v>
@@ -2398,45 +2398,45 @@
         <v>3.65</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1">
         <v>40065</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <v>5200</v>
@@ -2445,45 +2445,45 @@
         <v>3.85</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>40461</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>4700</v>
@@ -2492,45 +2492,45 @@
         <v>3.5</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>40858</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21">
         <v>4300</v>
@@ -2539,45 +2539,45 @@
         <v>3.55</v>
       </c>
       <c r="O21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1">
         <v>41255</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>4600</v>
@@ -2586,45 +2586,45 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1">
         <v>41287</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M23">
         <v>5500</v>
@@ -2633,45 +2633,45 @@
         <v>3.65</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>41684</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <v>4800</v>
@@ -2680,45 +2680,45 @@
         <v>3.75</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1">
         <v>42078</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25">
         <v>4500</v>
@@ -2727,45 +2727,45 @@
         <v>3.85</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1">
         <v>42476</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>5200</v>
@@ -2774,45 +2774,45 @@
         <v>3.9</v>
       </c>
       <c r="O26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
         <v>42872</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M27">
         <v>5400</v>
@@ -2821,45 +2821,45 @@
         <v>3.8</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1">
         <v>43269</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28">
         <v>5000</v>
@@ -2868,45 +2868,45 @@
         <v>3.65</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>43665</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M29">
         <v>5800</v>
@@ -2915,45 +2915,45 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1">
         <v>44063</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30">
         <v>4700</v>
@@ -2962,45 +2962,45 @@
         <v>3.85</v>
       </c>
       <c r="O30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>44460</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M31">
         <v>4900</v>
@@ -3009,7 +3009,7 @@
         <v>3.55</v>
       </c>
       <c r="O31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
